--- a/Inception/rankingUseCase.xlsx
+++ b/Inception/rankingUseCase.xlsx
@@ -264,6 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,10 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,14 +589,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
@@ -661,7 +661,9 @@
         <f>IF(H3&gt;20,"High",IF(H3&gt;10,"medium","low"))</f>
         <v>medium</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
@@ -693,39 +695,43 @@
         <f t="shared" ref="I4:I19" si="1">IF(H4&gt;20,"High",IF(H4&gt;10,"medium","low"))</f>
         <v>low</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5</v>
       </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
         <v>5</v>
       </c>
-      <c r="G5" s="15">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I5" s="16" t="str">
+      <c r="I5" s="13" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
@@ -757,7 +763,9 @@
         <f t="shared" si="1"/>
         <v>medium</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -789,39 +797,43 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="13" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
@@ -853,7 +865,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
@@ -885,7 +899,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
@@ -917,39 +933,43 @@
         <f t="shared" si="1"/>
         <v>medium</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
@@ -981,7 +1001,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
@@ -1013,7 +1035,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
@@ -1045,7 +1069,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
@@ -1077,7 +1103,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
@@ -1109,7 +1137,9 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
@@ -1141,39 +1171,43 @@
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="17">
-        <v>4</v>
-      </c>
-      <c r="C19" s="17">
-        <v>4</v>
-      </c>
-      <c r="D19" s="17">
-        <v>4</v>
-      </c>
-      <c r="E19" s="17">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17">
-        <v>4</v>
-      </c>
-      <c r="G19" s="17">
-        <v>3</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="B19" s="14">
+        <v>4</v>
+      </c>
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="15" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
